--- a/gene_expression/sample_metadata.xlsx
+++ b/gene_expression/sample_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch4_AcerCCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch4_AcerCCC/gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07235F8F-3553-1244-82D7-D7F91B73DCBC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A85E921-96A0-8C45-B263-A83A14625FBC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{64624594-119B-0044-8A32-F7F4760EE2EE}"/>
   </bookViews>
@@ -130,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,7 +456,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,13 +486,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -499,13 +503,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -516,13 +520,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -533,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -550,13 +554,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -567,13 +571,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -584,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -601,13 +605,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1090</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,13 +639,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>2382</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,13 +741,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>2383</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,13 +758,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>2384</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -771,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>2266</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -788,13 +792,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>2267</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -805,19 +809,18 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>2268</v>
+        <v>2384</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="A2:A21"/>
-    <sortCondition ref="C2:C21"/>
+    <sortCondition ref="E2:E21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gene_expression/sample_metadata.xlsx
+++ b/gene_expression/sample_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch4_AcerCCC/gene_expression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/AcerCCC/gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A85E921-96A0-8C45-B263-A83A14625FBC}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE563264-4CBD-6B49-AFE6-5040D2F01C56}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{64624594-119B-0044-8A32-F7F4760EE2EE}"/>
+    <workbookView xWindow="10900" yWindow="820" windowWidth="18300" windowHeight="16140" xr2:uid="{64624594-119B-0044-8A32-F7F4760EE2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Cheetos-B</t>
   </si>
   <si>
-    <t>stag hybrid</t>
-  </si>
-  <si>
     <t>nursery</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Date_Sampled</t>
+  </si>
+  <si>
+    <t>urban native</t>
   </si>
 </sst>
 </file>
@@ -130,10 +130,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,14 +452,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>44503</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -687,7 +687,7 @@
         <v>44503</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -704,7 +704,7 @@
         <v>44503</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -721,7 +721,7 @@
         <v>44503</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -738,7 +738,7 @@
         <v>44503</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -755,7 +755,7 @@
         <v>44503</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -772,7 +772,7 @@
         <v>44503</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -789,7 +789,7 @@
         <v>44503</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -806,7 +806,7 @@
         <v>44503</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>

--- a/gene_expression/sample_metadata.xlsx
+++ b/gene_expression/sample_metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/AcerCCC/gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE563264-4CBD-6B49-AFE6-5040D2F01C56}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEA21EF-A7B6-1B45-9B15-6B75DCFDBDE9}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="820" windowWidth="18300" windowHeight="16140" xr2:uid="{64624594-119B-0044-8A32-F7F4760EE2EE}"/>
+    <workbookView xWindow="-38400" yWindow="2180" windowWidth="38400" windowHeight="21100" xr2:uid="{64624594-119B-0044-8A32-F7F4760EE2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
     <t>Location</t>
   </si>
@@ -72,12 +72,18 @@
   </si>
   <si>
     <t>urban native</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -130,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53340F4-0EFB-7B47-8EBE-E481AF181E30}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +471,7 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -477,8 +487,11 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44495</v>
       </c>
@@ -494,8 +507,12 @@
       <c r="E2" s="1">
         <v>1087</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(E2,"_",C2,"_",D2,"_",B2)</f>
+        <v>1087_Miami Beach-C_2_CCC</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44495</v>
       </c>
@@ -511,8 +528,12 @@
       <c r="E3" s="1">
         <v>1088</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G21" si="0">_xlfn.CONCAT(E3,"_",C3,"_",D3,"_",B3)</f>
+        <v>1088_Cooper's_1_CCC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44495</v>
       </c>
@@ -528,8 +549,12 @@
       <c r="E4" s="1">
         <v>1089</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>1089_Miami Beach-C_3_CCC</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44495</v>
       </c>
@@ -545,8 +570,12 @@
       <c r="E5" s="1">
         <v>1090</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>1090_Sunny Isles-E_3_CCC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44495</v>
       </c>
@@ -562,8 +591,12 @@
       <c r="E6" s="1">
         <v>1091</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>1091_Cheetos-B_2_CCC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44495</v>
       </c>
@@ -579,8 +612,12 @@
       <c r="E7" s="1">
         <v>1092</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>1092_Cheetos-B_3_CCC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44495</v>
       </c>
@@ -596,8 +633,12 @@
       <c r="E8" s="1">
         <v>1096</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>1096_urban native_1_CCC</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44495</v>
       </c>
@@ -613,8 +654,12 @@
       <c r="E9" s="1">
         <v>1097</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>1097_Miami Beach-C_1_CCC</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44495</v>
       </c>
@@ -630,8 +675,12 @@
       <c r="E10" s="1">
         <v>1098</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>1098_Sunny Isles-E_1_CCC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44495</v>
       </c>
@@ -647,8 +696,12 @@
       <c r="E11" s="1">
         <v>1099</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>1099_Cheetos-B_1_CCC</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44495</v>
       </c>
@@ -664,8 +717,12 @@
       <c r="E12" s="1">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>1100_Sunny Isles-E_2_CCC</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44503</v>
       </c>
@@ -681,8 +738,12 @@
       <c r="E13" s="1">
         <v>2263</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>2263_Cheetos-B_1_nursery</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44503</v>
       </c>
@@ -698,8 +759,12 @@
       <c r="E14" s="1">
         <v>2264</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>2264_Cheetos-B_2_nursery</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44503</v>
       </c>
@@ -715,8 +780,12 @@
       <c r="E15" s="1">
         <v>2265</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>2265_Cheetos-B_3_nursery</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44503</v>
       </c>
@@ -732,8 +801,12 @@
       <c r="E16" s="1">
         <v>2266</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>2266_Sunny Isles-E_1_nursery</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44503</v>
       </c>
@@ -749,8 +822,12 @@
       <c r="E17" s="1">
         <v>2267</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>2267_Sunny Isles-E_2_nursery</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44503</v>
       </c>
@@ -766,8 +843,12 @@
       <c r="E18" s="1">
         <v>2268</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>2268_Sunny Isles-E_3_nursery</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44503</v>
       </c>
@@ -783,8 +864,12 @@
       <c r="E19" s="1">
         <v>2382</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>2382_Miami Beach-C_1_nursery</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44503</v>
       </c>
@@ -800,8 +885,12 @@
       <c r="E20" s="1">
         <v>2383</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>2383_Miami Beach-C_2_nursery</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44503</v>
       </c>
@@ -816,6 +905,10 @@
       </c>
       <c r="E21" s="1">
         <v>2384</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>2384_Miami Beach-C_3_nursery</v>
       </c>
     </row>
   </sheetData>

--- a/gene_expression/sample_metadata.xlsx
+++ b/gene_expression/sample_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/AcerCCC/gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEA21EF-A7B6-1B45-9B15-6B75DCFDBDE9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C2B134F0-D627-3740-8162-372010AFAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A564A38-3C69-444A-8363-5585126E6C72}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="2180" windowWidth="38400" windowHeight="21100" xr2:uid="{64624594-119B-0044-8A32-F7F4760EE2EE}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -136,10 +136,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,13 +458,14 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
